--- a/sec-10 record correction.xlsx
+++ b/sec-10 record correction.xlsx
@@ -220,7 +220,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -240,6 +240,13 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFF00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -289,7 +296,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -313,6 +320,10 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -595,8 +606,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B237"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:A2"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A56" sqref="A56:XFD56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -853,8 +864,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="50" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="4" t="s">
+    <row r="50" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="7" t="s">
         <v>42</v>
       </c>
     </row>
@@ -889,8 +900,8 @@
         <v>47</v>
       </c>
     </row>
-    <row r="56" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="4" t="s">
+    <row r="56" spans="1:2" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="11" t="s">
         <v>48</v>
       </c>
     </row>
